--- a/public/uploads/exports/OHGA.xlsx
+++ b/public/uploads/exports/OHGA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>株式会社ヤマダ 様 注文フォーマット</t>
   </si>
@@ -87,37 +87,25 @@
     <t>振込み情報</t>
   </si>
   <si>
-    <t>28日</t>
-  </si>
-  <si>
-    <t>銀行振込</t>
-  </si>
-  <si>
-    <t>0985062890</t>
-  </si>
-  <si>
-    <t>北海道</t>
-  </si>
-  <si>
-    <t>0x1da5ee14b7aab40307299b5191bd92c7096c73ce</t>
-  </si>
-  <si>
-    <t>Dao Manh Trung</t>
-  </si>
-  <si>
-    <t>大賀 04</t>
-  </si>
-  <si>
-    <t>福島県中通り産ひとめぼれ20kg 白米</t>
-  </si>
-  <si>
-    <t>28/08/2020</t>
-  </si>
-  <si>
-    <t>16:00 ~ 18:00</t>
-  </si>
-  <si>
-    <t>依頼人名.1様2日に3円入金済み</t>
+    <t>01日</t>
+  </si>
+  <si>
+    <t>代金引換</t>
+  </si>
+  <si>
+    <t>070-1398-2234</t>
+  </si>
+  <si>
+    <t>大賀 01</t>
+  </si>
+  <si>
+    <t>もち米白米25kg</t>
+  </si>
+  <si>
+    <t>16/09/2020</t>
+  </si>
+  <si>
+    <t>19:00～21:00</t>
   </si>
 </sst>
 </file>
@@ -515,7 +503,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="U3" sqref="U3"/>
@@ -632,76 +620,1032 @@
       <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="D4">
-        <v>1000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J4">
-        <v>7790</v>
+        <v>10200</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>7790</v>
+        <v>10200</v>
       </c>
       <c r="P4">
-        <v>7980</v>
+        <v>10800</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="R4">
-        <f>IF(J4="","",P4-J4*K4-N4-Q4)</f>
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="S4"/>
-      <c r="T4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4">
-        <v>4545</v>
-      </c>
+      <c r="T4"/>
+      <c r="U4"/>
     </row>
     <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5">
+        <v>10200</v>
+      </c>
       <c r="K5">
-        <f>SUM(K4:K4)</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>10200</v>
       </c>
       <c r="P5">
-        <f>SUM(P4:P4)</f>
-        <v>7980</v>
+        <v>10800</v>
       </c>
       <c r="Q5">
-        <f>SUM(Q4:Q4)</f>
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="R5">
-        <f>SUM(R4:R4)</f>
-        <v>190</v>
+        <v>0</v>
+      </c>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6">
+        <v>10200</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>10200</v>
+      </c>
+      <c r="P6">
+        <v>10800</v>
+      </c>
+      <c r="Q6">
+        <v>330</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7">
+        <v>10200</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>10200</v>
+      </c>
+      <c r="P7">
+        <v>10800</v>
+      </c>
+      <c r="Q7">
+        <v>330</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8">
+        <v>10200</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>10200</v>
+      </c>
+      <c r="P8">
+        <v>10800</v>
+      </c>
+      <c r="Q8">
+        <v>330</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9">
+        <v>10200</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>10200</v>
+      </c>
+      <c r="P9">
+        <v>10800</v>
+      </c>
+      <c r="Q9">
+        <v>330</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10">
+        <v>10200</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>10200</v>
+      </c>
+      <c r="P10">
+        <v>10800</v>
+      </c>
+      <c r="Q10">
+        <v>330</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11">
+        <v>10200</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>10200</v>
+      </c>
+      <c r="P11">
+        <v>10800</v>
+      </c>
+      <c r="Q11">
+        <v>330</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12">
+        <v>10200</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>10200</v>
+      </c>
+      <c r="P12">
+        <v>10800</v>
+      </c>
+      <c r="Q12">
+        <v>330</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13">
+        <v>10200</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>10200</v>
+      </c>
+      <c r="P13">
+        <v>10800</v>
+      </c>
+      <c r="Q13">
+        <v>330</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14">
+        <v>10200</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>10200</v>
+      </c>
+      <c r="P14">
+        <v>10800</v>
+      </c>
+      <c r="Q14">
+        <v>330</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15">
+        <v>10200</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>10200</v>
+      </c>
+      <c r="P15">
+        <v>10800</v>
+      </c>
+      <c r="Q15">
+        <v>330</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16">
+        <v>10200</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>10200</v>
+      </c>
+      <c r="P16">
+        <v>10800</v>
+      </c>
+      <c r="Q16">
+        <v>330</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17">
+        <v>10200</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>10200</v>
+      </c>
+      <c r="P17">
+        <v>10800</v>
+      </c>
+      <c r="Q17">
+        <v>330</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18">
+        <v>10200</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>10200</v>
+      </c>
+      <c r="P18">
+        <v>10800</v>
+      </c>
+      <c r="Q18">
+        <v>330</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19">
+        <v>10200</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>10200</v>
+      </c>
+      <c r="P19">
+        <v>10800</v>
+      </c>
+      <c r="Q19">
+        <v>330</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20">
+        <v>10200</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>10200</v>
+      </c>
+      <c r="P20">
+        <v>10800</v>
+      </c>
+      <c r="Q20">
+        <v>330</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21">
+        <v>10200</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>10200</v>
+      </c>
+      <c r="P21">
+        <v>10800</v>
+      </c>
+      <c r="Q21">
+        <v>330</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22">
+        <v>10200</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>10200</v>
+      </c>
+      <c r="P22">
+        <v>10800</v>
+      </c>
+      <c r="Q22">
+        <v>330</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23">
+        <v>10200</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>10200</v>
+      </c>
+      <c r="P23">
+        <v>10800</v>
+      </c>
+      <c r="Q23">
+        <v>330</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="K24">
+        <f>SUM(K4:K23)</f>
+        <v>20</v>
+      </c>
+      <c r="P24">
+        <f>SUM(P4:P23)</f>
+        <v>216000</v>
+      </c>
+      <c r="Q24">
+        <f>SUM(Q4:Q23)</f>
+        <v>6600</v>
+      </c>
+      <c r="R24">
+        <f>SUM(R4:R23)</f>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
